--- a/Teste Aceitacao.xlsx
+++ b/Teste Aceitacao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Vídeo 1</t>
   </si>
@@ -641,7 +641,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,9 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
